--- a/DestinosTAI_2019.xlsx
+++ b/DestinosTAI_2019.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia.pomposo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonia.pomposo\Desktop\destinos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E701A761-8DF1-4E62-921D-2EA25AB36ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B846F44-407C-4624-A147-5703B049BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD98990-169E-4144-849B-26144C62021F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="345">
   <si>
     <t>MINISTERIO</t>
   </si>
@@ -562,11 +563,6 @@
     <t>S.G. DE TECNOLOG.DE LA INF.Y DE LAS COM.</t>
   </si>
   <si>
-    <t>Agustín de Betancurr, 11
-Pº Castellana, 63
-José Abascal, 39</t>
-  </si>
-  <si>
     <t>Pº Castellana, 160</t>
   </si>
   <si>
@@ -613,465 +609,492 @@
   </si>
   <si>
     <t xml:space="preserve">SUBSECRETARIA DE POLITICA TERRITORIAL </t>
+  </si>
+  <si>
+    <t>323-326</t>
+  </si>
+  <si>
+    <t>327-330</t>
+  </si>
+  <si>
+    <t>331-332</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE SANIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. G. SALUD DIG. Y SIS. INF., PARA SNS </t>
+  </si>
+  <si>
+    <t>S.G. DE INFRAESTR. TECNOLOGICA SANITARIA</t>
+  </si>
+  <si>
+    <t>S.G. DE SERVICIOS DIGITALES DE SALUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECRETARIA DE SANIDAD </t>
+  </si>
+  <si>
+    <t>DIVIS. DE TECNOLOGIAS DE LA INFORMACION</t>
+  </si>
+  <si>
+    <t>333-350</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE TRABAJO Y ECONOMIA SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECRETARIA DE TRABAJO Y ECON. SOCIAL </t>
+  </si>
+  <si>
+    <t>S.G. DE TECNOLOGIAS DE LA INF.Y COMUNIC.</t>
+  </si>
+  <si>
+    <t>351-354</t>
+  </si>
+  <si>
+    <t>355-360</t>
+  </si>
+  <si>
+    <t>361-362</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE TRANSPORT., MOV.Y AG. URB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G. DE LA MARINA MERCANTE </t>
+  </si>
+  <si>
+    <t>S.G. DE COORDINACION Y GESTION ADMTVA.</t>
+  </si>
+  <si>
+    <t>Ruíz de Alarcón, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G. DE ORGANIZACION E INSPECCION </t>
+  </si>
+  <si>
+    <t>S.G. DE TECN.DE LA INF. Y ADMON. DIGITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G. DE TRANSPORTE TERRESTRE </t>
+  </si>
+  <si>
+    <t>S.G. DE GEST., ANAL.E INN.TRANSP. TERR.</t>
+  </si>
+  <si>
+    <t>Pº Castellana, 67</t>
+  </si>
+  <si>
+    <t>364-365</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE UNIVERSIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSECRETARIA DE UNIVERSIDADES </t>
+  </si>
+  <si>
+    <t>DIV. DE TECNOL. DE LA INFOR. Y LA COMUN.</t>
+  </si>
+  <si>
+    <t>Castellana, 162</t>
+  </si>
+  <si>
+    <t>366-369</t>
+  </si>
+  <si>
+    <t>370-374</t>
+  </si>
+  <si>
+    <t>MINISTERIO DEL INTERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G. DE LA POLICIA </t>
+  </si>
+  <si>
+    <t>S.G. DE LOGISTICA E INNOVACION</t>
+  </si>
+  <si>
+    <t>S.G. DE SIST.DE INFORM.Y COMUN.SEGUR.</t>
+  </si>
+  <si>
+    <t>S.DE E. DE SEGURIDAD</t>
+  </si>
+  <si>
+    <t>Julián González Segador s/n</t>
+  </si>
+  <si>
+    <t>375-377</t>
+  </si>
+  <si>
+    <t>MINISTERIO PR., REL.CORT. Y MEMORIA DEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.G. DE SERVICIOS </t>
+  </si>
+  <si>
+    <t>S.G. DE TECNOL. INFORM. Y COMUNICACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPART. COORD. TECN. JURID. A.P. </t>
+  </si>
+  <si>
+    <t>UNIDAD DE TECN. INFOR. COMUNICAC. A.P.</t>
+  </si>
+  <si>
+    <t>379-386</t>
+  </si>
+  <si>
+    <t>MINISTERIO TRANSICION EC. Y RETO DEMOGR.</t>
+  </si>
+  <si>
+    <t>DIV. SIST.Y TECNOL.DE LA INF. Y COMUNIC.</t>
+  </si>
+  <si>
+    <t>Plaza San Juan de la Cruz, 10</t>
+  </si>
+  <si>
+    <t>AG.ESP.SEGURIDAD ALIMENTARIA Y NUTRICION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG.ESP.SEGURIDAD ALIMENTARIA Y NUTRICION </t>
+  </si>
+  <si>
+    <t>389-390</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA NACIONAL DE ESPAÑA O.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBLIOTECA NACIONAL DE ESPAÑA O.A. </t>
+  </si>
+  <si>
+    <t>GERENCIA</t>
+  </si>
+  <si>
+    <t>C.INVEST.ENERG.MEDIOAMB.Y TECN. (CIEMAT)</t>
+  </si>
+  <si>
+    <t>CENTRO NACIONAL INFORMACION GEOGRAFICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.INVEST.ENERG.MEDIOAMB.Y TECN. (CIEMAT) </t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>Avda. Complutense, 40</t>
+  </si>
+  <si>
+    <t>General Ibáñez de Ibero, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRO NACIONAL INFORMACION GEOGRAFICA </t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>COMISIONADO PARA EL MERCADO DE TABACOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMISIONADO PARA EL MERCADO DE TABACOS </t>
+  </si>
+  <si>
+    <t>PRESIDENCIA</t>
+  </si>
+  <si>
+    <t>Pº de la Habana, 140</t>
+  </si>
+  <si>
+    <t>FONDO DE GARANTIA SALARIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONDO DE GARANTIA SALARIAL </t>
+  </si>
+  <si>
+    <t>Sagasta, 10</t>
+  </si>
+  <si>
+    <t>FONDO ESPAÑOL GARANT.AGRARIA, O.A.(FEGA)</t>
+  </si>
+  <si>
+    <t>Beneficiencia, 8</t>
+  </si>
+  <si>
+    <t>GERENC. INFRAEST. Y EQUIP. DE CULT. O.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERENC. INFRAEST. Y EQUIP. DE CULT. O.A. </t>
+  </si>
+  <si>
+    <t>S.G. ECONOMICO-ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>Alfonso XII, 3</t>
+  </si>
+  <si>
+    <t>I.NAL. ART.ESCENICAS Y DE LA MUSICA O.A.</t>
+  </si>
+  <si>
+    <t>INST. DE MAYORES Y SERVICIOS SOCIALES</t>
+  </si>
+  <si>
+    <t>INST. NAL. DE ADMINISTRACION PUBLICA (INAP)</t>
+  </si>
+  <si>
+    <t>SUBDIRECCION DE SELECCION</t>
+  </si>
+  <si>
+    <t>INST.CINEMATOG. ARTES AUDIOVISUALES O.A.</t>
+  </si>
+  <si>
+    <t>401-402</t>
+  </si>
+  <si>
+    <t>405-406</t>
+  </si>
+  <si>
+    <t>407-410</t>
+  </si>
+  <si>
+    <t>INST.NAL.SEG.Y SALUD EN EL TRABAJO,OA,MP</t>
+  </si>
+  <si>
+    <t>Torrelaguna, 73</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE ESTUDIOS FISCALES</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE ESTUDIOS FISCALES (IEF)</t>
+  </si>
+  <si>
+    <t>Herrera Oria, 378</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE LA JUVENTUD</t>
+  </si>
+  <si>
+    <t>Ortega y Gasset, 71</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE LA JUVENTUD (INJUVE)</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE SALUD CARLOS III (ISCIII)</t>
+  </si>
+  <si>
+    <t>Monforte de Lemos, 5
+Majadahonda (CC. El carralero)</t>
+  </si>
+  <si>
+    <t>INSTITUTO NAC. ESTADISTICA (INE), O.A.</t>
+  </si>
+  <si>
+    <t>S.G. DE TECNOLOG.DE LA INFORM.Y LAS COM.</t>
+  </si>
+  <si>
+    <t>Avda. Manoteras, 50</t>
+  </si>
+  <si>
+    <t>413-415</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DE GEST. SANITARIA</t>
+  </si>
+  <si>
+    <t>S.G. DE GESTION ECONOMICA Y RR.HH.</t>
+  </si>
+  <si>
+    <t>INSTITUTO PARA LA TRANSICION JUSTA, O.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION DEL INSTITUTO </t>
+  </si>
+  <si>
+    <t>GERENCIA DEL INSTITUTO</t>
+  </si>
+  <si>
+    <t>JEFATURA CENTRAL DE TRAFICO</t>
+  </si>
+  <si>
+    <t>GERENCIA DE INFORMATICA</t>
+  </si>
+  <si>
+    <t>MUSEO NAL. CENTRO DE ARTE REINA SOFIA</t>
+  </si>
+  <si>
+    <t>SUBDIRECCION DE GERENCIA</t>
+  </si>
+  <si>
+    <t>Santa Isabel, 52</t>
+  </si>
+  <si>
+    <t>MUT.GRAL.FUNC.CIVILES DEL E. -MUFACE</t>
+  </si>
+  <si>
+    <t>OFIC. ESP.PATENTES Y MARCAS (OEPM), O.A.</t>
+  </si>
+  <si>
+    <t>Pº Castellana, 75</t>
+  </si>
+  <si>
+    <t>419-422</t>
+  </si>
+  <si>
+    <t>425-433</t>
+  </si>
+  <si>
+    <t>ORG.EST.INSPEC.DE TRAB.Y SEG.SOCIAL O.A.</t>
+  </si>
+  <si>
+    <t>Pº Castellana, 63</t>
+  </si>
+  <si>
+    <t>ORGANIZACION NACIONAL DE TRASPLANTES</t>
+  </si>
+  <si>
+    <t>PARQUE MOVIL DEL ESTADO</t>
+  </si>
+  <si>
+    <t>Cea Bermúdez, 5</t>
+  </si>
+  <si>
+    <t>SERVICIO PUBLICO DE EMPLEO ESTATAL O.A. (SEPE)</t>
+  </si>
+  <si>
+    <t>S.G. DE TECNOLOG.INFORMACION Y COMUNIC.</t>
+  </si>
+  <si>
+    <t>UNIV.INTER.MENEND.PELAYO O.A.,M.P.(UIMP)</t>
+  </si>
+  <si>
+    <t>Isaac Peral, 23</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DE GEST. SANITARIA (INGESA)</t>
+  </si>
+  <si>
+    <t>Alcalá, 56</t>
+  </si>
+  <si>
+    <t>Santa Engracia, 7</t>
+  </si>
+  <si>
+    <t>General Ibáñez de Íbero, 3</t>
+  </si>
+  <si>
+    <t>D.G. DEL INSTITUTO GEOGRAFICO NACIONAL (MITMA)</t>
+  </si>
+  <si>
+    <t>ENTREVISTA</t>
+  </si>
+  <si>
+    <t>CUESTIONARIO</t>
+  </si>
+  <si>
+    <t>Cuestionario</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>AGENCIA ESPAÑOLA DE MEDIC.Y PROD.SANIT. (AEMPS)</t>
+  </si>
+  <si>
+    <t>S. DE E. DE DIGITALIZAC. E INT. ARTIFIC. (SEDIA)</t>
+  </si>
+  <si>
+    <t>Alcalá 5,7 y 9</t>
+  </si>
+  <si>
+    <t>I.NAL. ART.ESCENICAS Y DE LA MUSICA O.A. (INAEM)</t>
+  </si>
+  <si>
+    <t>INST. DE MAYORES Y SERVICIOS SOCIALES (IMSERSO)</t>
+  </si>
+  <si>
+    <t>S.GRAL. DE FINANCIAC. AUTONOMICA Y LOCAL (SGFAL)</t>
+  </si>
+  <si>
+    <t>INST.NAL.SEG.Y SALUD EN EL TRABAJO,OA,MP (INSST)</t>
+  </si>
+  <si>
+    <t>ORG.EST.INSPEC.DE TRAB.Y SEG.SOCIAL O.A. (OEITSS)</t>
+  </si>
+  <si>
+    <t>Telefónica</t>
+  </si>
+  <si>
+    <t>Atocha, 106</t>
+  </si>
+  <si>
+    <t>Sinesio Delgado, 6-8</t>
+  </si>
+  <si>
+    <t>López de Hoyos, 169
+Serrano, 102</t>
+  </si>
+  <si>
+    <t>Agustín Foxá, 28</t>
+  </si>
+  <si>
+    <t>Miguel Ángel, 25
+García de Paredes, 65</t>
+  </si>
+  <si>
+    <t>Alcalá 56</t>
+  </si>
+  <si>
+    <t>P.º de Recoletos, 20-22</t>
+  </si>
+  <si>
+    <t>Ginzo de Limia, 58</t>
+  </si>
+  <si>
+    <t>Pº Juan XXIII, 26</t>
+  </si>
+  <si>
+    <t>Condesa Venadito, 9</t>
+  </si>
+  <si>
+    <t>Josefa Valcárcel, 44
+Telemaco, 23</t>
+  </si>
+  <si>
+    <t>Metro Ciudad Universitaria
+Avenida Puerta de Hierro s/n</t>
+  </si>
+  <si>
+    <t>Cabo López Martínez s/n (Desarrollo y Sist)
+Amador de los Ríos, 7 (Sistemas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinar, 19 </t>
+  </si>
+  <si>
+    <t>Agustín de Betancurr, 11 (Desarrollo y Sistemas)
+Pº Castellana, 63 (Sistemas)
+José Abascal, 39 (Sistemas)</t>
   </si>
   <si>
     <t>Santa Engracia, 7
 Claudio Coello, 31
 José Marañón, 12
-Pº Castellana, 3 -&gt; Miguel Ángel, 21
-Sor Ángela de la cruz, 9</t>
-  </si>
-  <si>
-    <t>323-326</t>
-  </si>
-  <si>
-    <t>327-330</t>
-  </si>
-  <si>
-    <t>331-332</t>
-  </si>
-  <si>
-    <t>MINISTERIO DE SANIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. G. SALUD DIG. Y SIS. INF., PARA SNS </t>
-  </si>
-  <si>
-    <t>S.G. DE INFRAESTR. TECNOLOGICA SANITARIA</t>
-  </si>
-  <si>
-    <t>S.G. DE SERVICIOS DIGITALES DE SALUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECRETARIA DE SANIDAD </t>
-  </si>
-  <si>
-    <t>DIVIS. DE TECNOLOGIAS DE LA INFORMACION</t>
-  </si>
-  <si>
-    <t>333-350</t>
-  </si>
-  <si>
-    <t>MINISTERIO DE TRABAJO Y ECONOMIA SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECRETARIA DE TRABAJO Y ECON. SOCIAL </t>
-  </si>
-  <si>
-    <t>S.G. DE TECNOLOGIAS DE LA INF.Y COMUNIC.</t>
-  </si>
-  <si>
-    <t>351-354</t>
-  </si>
-  <si>
-    <t>355-360</t>
-  </si>
-  <si>
-    <t>361-362</t>
-  </si>
-  <si>
-    <t>MINISTERIO DE TRANSPORT., MOV.Y AG. URB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.G. DE LA MARINA MERCANTE </t>
-  </si>
-  <si>
-    <t>S.G. DE COORDINACION Y GESTION ADMTVA.</t>
-  </si>
-  <si>
-    <t>Ruíz de Alarcón, 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.G. DE ORGANIZACION E INSPECCION </t>
-  </si>
-  <si>
-    <t>S.G. DE TECN.DE LA INF. Y ADMON. DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.G. DE TRANSPORTE TERRESTRE </t>
-  </si>
-  <si>
-    <t>S.G. DE GEST., ANAL.E INN.TRANSP. TERR.</t>
-  </si>
-  <si>
-    <t>Pº Castellana, 67</t>
-  </si>
-  <si>
-    <t>364-365</t>
-  </si>
-  <si>
-    <t>MINISTERIO DE UNIVERSIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSECRETARIA DE UNIVERSIDADES </t>
-  </si>
-  <si>
-    <t>DIV. DE TECNOL. DE LA INFOR. Y LA COMUN.</t>
-  </si>
-  <si>
-    <t>Castellana, 162</t>
-  </si>
-  <si>
-    <t>366-369</t>
-  </si>
-  <si>
-    <t>370-374</t>
-  </si>
-  <si>
-    <t>MINISTERIO DEL INTERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.G. DE LA POLICIA </t>
-  </si>
-  <si>
-    <t>S.G. DE LOGISTICA E INNOVACION</t>
-  </si>
-  <si>
-    <t>S.G. DE SIST.DE INFORM.Y COMUN.SEGUR.</t>
-  </si>
-  <si>
-    <t>S.DE E. DE SEGURIDAD</t>
-  </si>
-  <si>
-    <t>Julián González Segador s/n</t>
-  </si>
-  <si>
-    <t>Cabo López s/n (Desarrollo y Sist)
-Amador de los Ríos, 7 (Sistemas)</t>
-  </si>
-  <si>
-    <t>375-377</t>
-  </si>
-  <si>
-    <t>MINISTERIO PR., REL.CORT. Y MEMORIA DEM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.G. DE SERVICIOS </t>
-  </si>
-  <si>
-    <t>S.G. DE TECNOL. INFORM. Y COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>Metro Ciudad Universitaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPART. COORD. TECN. JURID. A.P. </t>
-  </si>
-  <si>
-    <t>UNIDAD DE TECN. INFOR. COMUNICAC. A.P.</t>
-  </si>
-  <si>
-    <t>379-386</t>
-  </si>
-  <si>
-    <t>MINISTERIO TRANSICION EC. Y RETO DEMOGR.</t>
-  </si>
-  <si>
-    <t>DIV. SIST.Y TECNOL.DE LA INF. Y COMUNIC.</t>
-  </si>
-  <si>
-    <t>Plaza San Juan de la Cruz, 10</t>
-  </si>
-  <si>
-    <t>AG.ESP.SEGURIDAD ALIMENTARIA Y NUTRICION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG.ESP.SEGURIDAD ALIMENTARIA Y NUTRICION </t>
-  </si>
-  <si>
-    <t>389-390</t>
-  </si>
-  <si>
-    <t>BIBLIOTECA NACIONAL DE ESPAÑA O.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOTECA NACIONAL DE ESPAÑA O.A. </t>
-  </si>
-  <si>
-    <t>GERENCIA</t>
-  </si>
-  <si>
-    <t>C.INVEST.ENERG.MEDIOAMB.Y TECN. (CIEMAT)</t>
-  </si>
-  <si>
-    <t>CENTRO NACIONAL INFORMACION GEOGRAFICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.INVEST.ENERG.MEDIOAMB.Y TECN. (CIEMAT) </t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO DE TECNOLOGIA</t>
-  </si>
-  <si>
-    <t>Avda. Complutense, 40</t>
-  </si>
-  <si>
-    <t>General Ibáñez de Ibero, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRO NACIONAL INFORMACION GEOGRAFICA </t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>COMISIONADO PARA EL MERCADO DE TABACOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMISIONADO PARA EL MERCADO DE TABACOS </t>
-  </si>
-  <si>
-    <t>PRESIDENCIA</t>
-  </si>
-  <si>
-    <t>Pº de la Habana, 140</t>
-  </si>
-  <si>
-    <t>FONDO DE GARANTIA SALARIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FONDO DE GARANTIA SALARIAL </t>
-  </si>
-  <si>
-    <t>Sagasta, 10</t>
-  </si>
-  <si>
-    <t>FONDO ESPAÑOL GARANT.AGRARIA, O.A.(FEGA)</t>
-  </si>
-  <si>
-    <t>Beneficiencia, 8</t>
-  </si>
-  <si>
-    <t>GERENC. INFRAEST. Y EQUIP. DE CULT. O.A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERENC. INFRAEST. Y EQUIP. DE CULT. O.A. </t>
-  </si>
-  <si>
-    <t>S.G. ECONOMICO-ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>Alfonso XII, 3</t>
-  </si>
-  <si>
-    <t>I.NAL. ART.ESCENICAS Y DE LA MUSICA O.A.</t>
-  </si>
-  <si>
-    <t>INST. DE MAYORES Y SERVICIOS SOCIALES</t>
-  </si>
-  <si>
-    <t>Vaguada</t>
-  </si>
-  <si>
-    <t>INST. NAL. DE ADMINISTRACION PUBLICA (INAP)</t>
-  </si>
-  <si>
-    <t>SUBDIRECCION DE SELECCION</t>
-  </si>
-  <si>
-    <t>INST.CINEMATOG. ARTES AUDIOVISUALES O.A.</t>
-  </si>
-  <si>
-    <t>401-402</t>
-  </si>
-  <si>
-    <t>405-406</t>
-  </si>
-  <si>
-    <t>407-410</t>
-  </si>
-  <si>
-    <t>INST.NAL.SEG.Y SALUD EN EL TRABAJO,OA,MP</t>
-  </si>
-  <si>
-    <t>Torrelaguna, 73</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE ESTUDIOS FISCALES</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE ESTUDIOS FISCALES (IEF)</t>
-  </si>
-  <si>
-    <t>Herrera Oria, 378</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE LA JUVENTUD</t>
-  </si>
-  <si>
-    <t>Ortega y Gasset, 71</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE LA JUVENTUD (INJUVE)</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE SALUD CARLOS III (ISCIII)</t>
-  </si>
-  <si>
-    <t>Monforte de Lemos, 5
-Majadahonda (CC. El carralero)</t>
-  </si>
-  <si>
-    <t>INSTITUTO NAC. ESTADISTICA (INE), O.A.</t>
-  </si>
-  <si>
-    <t>S.G. DE TECNOLOG.DE LA INFORM.Y LAS COM.</t>
-  </si>
-  <si>
-    <t>Avda. Manoteras, 50</t>
-  </si>
-  <si>
-    <t>413-415</t>
-  </si>
-  <si>
-    <t>INSTITUTO NACIONAL DE GEST. SANITARIA</t>
-  </si>
-  <si>
-    <t>S.G. DE GESTION ECONOMICA Y RR.HH.</t>
-  </si>
-  <si>
-    <t>INSTITUTO PARA LA TRANSICION JUSTA, O.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCION DEL INSTITUTO </t>
-  </si>
-  <si>
-    <t>GERENCIA DEL INSTITUTO</t>
-  </si>
-  <si>
-    <t>JEFATURA CENTRAL DE TRAFICO</t>
-  </si>
-  <si>
-    <t>GERENCIA DE INFORMATICA</t>
-  </si>
-  <si>
-    <t>Josefa Valcárcel, 44</t>
-  </si>
-  <si>
-    <t>MUSEO NAL. CENTRO DE ARTE REINA SOFIA</t>
-  </si>
-  <si>
-    <t>SUBDIRECCION DE GERENCIA</t>
-  </si>
-  <si>
-    <t>Santa Isabel, 52</t>
-  </si>
-  <si>
-    <t>MUT.GRAL.FUNC.CIVILES DEL E. -MUFACE</t>
-  </si>
-  <si>
-    <t>Juan XXIII, 26</t>
-  </si>
-  <si>
-    <t>OFIC. ESP.PATENTES Y MARCAS (OEPM), O.A.</t>
-  </si>
-  <si>
-    <t>Pº Castellana, 75</t>
-  </si>
-  <si>
-    <t>419-422</t>
-  </si>
-  <si>
-    <t>425-433</t>
-  </si>
-  <si>
-    <t>ORG.EST.INSPEC.DE TRAB.Y SEG.SOCIAL O.A.</t>
-  </si>
-  <si>
-    <t>Pº Castellana, 63</t>
-  </si>
-  <si>
-    <t>ORGANIZACION NACIONAL DE TRASPLANTES</t>
-  </si>
-  <si>
-    <t>Sinesio Delgado, 6</t>
-  </si>
-  <si>
-    <t>PARQUE MOVIL DEL ESTADO</t>
-  </si>
-  <si>
-    <t>Cea Bermúdez, 5</t>
-  </si>
-  <si>
-    <t>Condesa Benadito, 9</t>
-  </si>
-  <si>
-    <t>SERVICIO PUBLICO DE EMPLEO ESTATAL O.A. (SEPE)</t>
-  </si>
-  <si>
-    <t>S.G. DE TECNOLOG.INFORMACION Y COMUNIC.</t>
-  </si>
-  <si>
-    <t>UNIV.INTER.MENEND.PELAYO O.A.,M.P.(UIMP)</t>
-  </si>
-  <si>
-    <t>Isaac Peral, 23</t>
-  </si>
-  <si>
-    <t>INSTITUTO NACIONAL DE GEST. SANITARIA (INGESA)</t>
-  </si>
-  <si>
-    <t>Alcalá, 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María de Molina, 
-Serrano, 117
-Pinar, 19 </t>
-  </si>
-  <si>
-    <t>Santa Engracia, 7</t>
+Pº Castellana, 3 -&gt; Miguel Ángel, 21</t>
   </si>
   <si>
     <t>Agustín de Betancurr, 11 (Desarrollo, QA, Seguridad)
-Pº Castellana ¿?</t>
-  </si>
-  <si>
-    <t>General Ibáñez de Íbero, 3</t>
-  </si>
-  <si>
-    <t>D.G. DEL INSTITUTO GEOGRAFICO NACIONAL (MITMA)</t>
-  </si>
-  <si>
-    <t>ENTREVISTA</t>
-  </si>
-  <si>
-    <t>CUESTIONARIO</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>AGENCIA ESPAÑOLA DE MEDIC.Y PROD.SANIT. (AEMPS)</t>
-  </si>
-  <si>
-    <t>S. DE E. DE DIGITALIZAC. E INT. ARTIFIC. (SEDIA)</t>
-  </si>
-  <si>
-    <t>Alcalá 5,7 y 9</t>
-  </si>
-  <si>
-    <t>I.NAL. ART.ESCENICAS Y DE LA MUSICA O.A. (INAEM)</t>
-  </si>
-  <si>
-    <t>Pz del Rey, 1</t>
-  </si>
-  <si>
-    <t>INST. DE MAYORES Y SERVICIOS SOCIALES (IMSERSO)</t>
-  </si>
-  <si>
-    <t>S.GRAL. DE FINANCIAC. AUTONOMICA Y LOCAL (SGFAL)</t>
-  </si>
-  <si>
-    <t>INST.NAL.SEG.Y SALUD EN EL TRABAJO,OA,MP (INSST)</t>
-  </si>
-  <si>
-    <t>ORG.EST.INSPEC.DE TRAB.Y SEG.SOCIAL O.A. (OEITSS)</t>
+Pº Castellana, 63</t>
   </si>
 </sst>
 </file>
@@ -1087,18 +1110,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1113,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1121,13 +1138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1141,12 +1154,29 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9B2AD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1455,11 +1485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABE430D-82B4-46B7-B4F6-75BA9CB87654}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,7 +1501,9 @@
     <col min="5" max="5" width="32.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.81640625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1482,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1500,44 +1532,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>44685.541666666664</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>44685.541666666664</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1559,11 +1591,11 @@
       <c r="B4" s="2">
         <v>83</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>44685.541666666664</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1585,11 +1617,11 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>44684.458333333336</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1611,14 +1643,14 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>328</v>
+      <c r="C6" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -1630,29 +1662,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>88</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>44676.510416666664</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1663,11 +1695,11 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>44678.666666666664</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -1682,18 +1714,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>44677.416666666664</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1704,8 +1736,8 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>319</v>
+      <c r="H9" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1715,11 +1747,11 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>44657.729166666664</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1741,11 +1773,11 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>44670.666666666664</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>
@@ -1767,11 +1799,11 @@
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>328</v>
+      <c r="C12" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
@@ -1793,11 +1825,11 @@
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>328</v>
+      <c r="C13" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -1819,11 +1851,11 @@
       <c r="B14" s="2">
         <v>119</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>328</v>
+      <c r="C14" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>36</v>
@@ -1845,11 +1877,11 @@
       <c r="B15" s="2">
         <v>120</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>328</v>
+      <c r="C15" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
@@ -1871,11 +1903,11 @@
       <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>328</v>
+      <c r="C16" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>36</v>
@@ -1890,29 +1922,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>123</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1923,17 +1955,17 @@
       <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>328</v>
+      <c r="C18" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>58</v>
@@ -1949,11 +1981,11 @@
       <c r="B19" s="2">
         <v>130</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>328</v>
+      <c r="C19" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>36</v>
@@ -1975,11 +2007,11 @@
       <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>44692.395833333336</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>36</v>
@@ -1994,29 +2026,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="10">
         <v>44692.395833333336</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2027,11 +2059,11 @@
       <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>44692.395833333336</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>36</v>
@@ -2048,16 +2080,16 @@
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>44692.395833333336</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>36</v>
@@ -2079,11 +2111,11 @@
       <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>44692.395833333336</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>36</v>
@@ -2105,11 +2137,11 @@
       <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>44692.395833333336</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
@@ -2131,11 +2163,11 @@
       <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>44649.625</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>36</v>
@@ -2157,11 +2189,11 @@
       <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>44663.458333333336</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>79</v>
@@ -2183,11 +2215,11 @@
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>44678.4375</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
         <v>84</v>
@@ -2209,11 +2241,11 @@
       <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>44680.395833333336</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
@@ -2235,11 +2267,11 @@
       <c r="B30" s="2">
         <v>177</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>44671.520833333336</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
         <v>93</v>
@@ -2261,11 +2293,11 @@
       <c r="B31" s="2">
         <v>178</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>44671.520833333336</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
         <v>93</v>
@@ -2287,11 +2319,11 @@
       <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>44671.520833333336</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -2306,18 +2338,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <v>44672.520833333336</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>104</v>
@@ -2332,18 +2364,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>44679.520833333336</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>108</v>
@@ -2357,19 +2389,21 @@
       <c r="H34" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>328</v>
+      <c r="C35" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -2384,18 +2418,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="2">
         <v>206</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>44691.5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>113</v>
@@ -2410,44 +2444,44 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="10">
         <v>44673.395833333336</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <v>44693.395833333336</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>113</v>
@@ -2461,45 +2495,47 @@
       <c r="H38" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>17</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="12">
         <v>44655.708333333336</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>328</v>
+      <c r="C40" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>113</v>
@@ -2510,22 +2546,22 @@
       <c r="G40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H40" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="2">
         <v>236</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>328</v>
+      <c r="C41" s="6">
+        <v>44691.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>113</v>
@@ -2537,21 +2573,21 @@
         <v>138</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>326</v>
+      <c r="C42" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>113</v>
@@ -2566,24 +2602,24 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>44658.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>140</v>
@@ -2592,18 +2628,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="2">
         <v>241</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="6">
         <v>44672.458333333336</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>113</v>
@@ -2618,18 +2654,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="2">
         <v>242</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>328</v>
+      <c r="C45" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>113</v>
@@ -2640,20 +2676,22 @@
       <c r="G45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H45" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>44652.395833333336</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>113</v>
@@ -2664,22 +2702,22 @@
       <c r="G46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H46" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="6">
         <v>44676.5625</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>113</v>
@@ -2694,18 +2732,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>44685.666666666664</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E48" t="s">
         <v>152</v>
@@ -2720,18 +2758,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <v>44673.458333333336</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>157</v>
@@ -2746,18 +2784,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>328</v>
+      <c r="C50" s="6">
+        <v>44673.458333333336</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>157</v>
@@ -2768,20 +2806,23 @@
       <c r="G50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="2">
         <v>278</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>328</v>
+      <c r="C51" s="6">
+        <v>44673.458333333336</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>157</v>
@@ -2792,20 +2833,22 @@
       <c r="G51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H51" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>44664.520833333336</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>157</v>
@@ -2817,21 +2860,21 @@
         <v>166</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <v>44670.458333333336</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>168</v>
@@ -2843,309 +2886,320 @@
         <v>170</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>11</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="8">
+        <v>172</v>
+      </c>
+      <c r="C54" s="6">
         <v>44669.479166666664</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="8">
+        <v>173</v>
+      </c>
+      <c r="C55" s="6">
         <v>44669.479166666664</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44669.479166666664</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="8">
-        <v>44669.479166666664</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>328</v>
+        <v>181</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
         <v>184</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="H57" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="6">
+        <v>44659.4375</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E58" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="8">
-        <v>44659.4375</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E58" t="s">
-        <v>184</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>136</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>4</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="10">
+      <c r="B59" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="12">
         <v>44677.666666666664</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="8">
+        <v>44677.666666666664</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E60" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="10">
-        <v>44677.666666666664</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E60" t="s">
-        <v>192</v>
-      </c>
       <c r="F60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="8">
+        <v>189</v>
+      </c>
+      <c r="C61" s="6">
         <v>44672.416666666664</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>18</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="6">
+        <v>44671.6875</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="8">
-        <v>44671.6875</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H62" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>200</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H64" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="8">
+        <v>202</v>
+      </c>
+      <c r="C65" s="6">
         <v>44656.6875</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3155,23 +3209,23 @@
       <c r="B66" s="2">
         <v>363</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="6">
         <v>44687.416666666664</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3179,25 +3233,25 @@
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44692.395833333336</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="8">
-        <v>44692.395833333336</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="G67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3205,201 +3259,207 @@
         <v>4</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F68" t="s">
-        <v>222</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="8">
+        <v>218</v>
+      </c>
+      <c r="C69" s="6">
         <v>44690.5625</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="6">
+        <v>44679.458333333336</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C70" s="8">
-        <v>44679.458333333336</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F70" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="H70" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1</v>
       </c>
       <c r="B71" s="2">
         <v>378</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="6">
         <v>44679.458333333336</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" t="s">
         <v>229</v>
       </c>
-      <c r="F71" t="s">
-        <v>233</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H71" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="8">
+        <v>231</v>
+      </c>
+      <c r="C72" s="6">
         <v>44658.416666666664</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="9">
         <v>387</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>328</v>
+      <c r="C73" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="5"/>
+      <c r="H73" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="9">
         <v>388</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>328</v>
+      <c r="C74" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H74" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3409,101 +3469,101 @@
       <c r="B76" s="2">
         <v>391</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="6">
         <v>44691.375</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>1</v>
+      </c>
+      <c r="B77" s="9">
+        <v>392</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H77" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>1</v>
-      </c>
-      <c r="B77" s="2">
-        <v>392</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="9">
         <v>393</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>328</v>
+      <c r="C78" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="9">
         <v>394</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>328</v>
+      <c r="C79" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3513,49 +3573,49 @@
       <c r="B80" s="2">
         <v>395</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>328</v>
+      <c r="C80" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="9">
         <v>396</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>328</v>
+      <c r="C81" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>333</v>
+      <c r="H81" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3565,23 +3625,23 @@
       <c r="B82" s="2">
         <v>397</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="6">
         <v>44658.708333333336</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>268</v>
+      <c r="H82" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3591,22 +3651,24 @@
       <c r="B83" s="2">
         <v>398</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G83" t="s">
+        <v>240</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G83" t="s">
-        <v>244</v>
-      </c>
-      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -3615,41 +3677,43 @@
       <c r="B84" s="2">
         <v>399</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" t="s">
+        <v>265</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" t="s">
-        <v>270</v>
-      </c>
-      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="9">
         <v>400</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>328</v>
+      <c r="C85" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>15</v>
@@ -3663,25 +3727,25 @@
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>328</v>
+        <v>267</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3691,23 +3755,23 @@
       <c r="B87" s="2">
         <v>403</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="6">
         <v>44662.416666666664</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3717,49 +3781,49 @@
       <c r="B88" s="2">
         <v>404</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="6">
         <v>44698.375</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E88" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F88" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" s="8">
+        <v>268</v>
+      </c>
+      <c r="C89" s="6">
         <v>44671.479166666664</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3767,25 +3831,25 @@
         <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="8">
+        <v>269</v>
+      </c>
+      <c r="C90" s="6">
         <v>44673.5</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3795,99 +3859,101 @@
       <c r="B91" s="2">
         <v>411</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>328</v>
+      <c r="C91" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>412</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="6">
+        <v>44656.75</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" t="s">
         <v>289</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="F93" t="s">
+        <v>289</v>
+      </c>
+      <c r="G93" t="s">
         <v>290</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="H93" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
         <v>1</v>
       </c>
-      <c r="B92" s="2">
-        <v>412</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="B94" s="9">
+        <v>416</v>
+      </c>
+      <c r="C94" s="10">
+        <v>44694.520833333336</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H94" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>2</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="8">
-        <v>44656.75</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E93" t="s">
-        <v>294</v>
-      </c>
-      <c r="F93" t="s">
-        <v>294</v>
-      </c>
-      <c r="G93" t="s">
-        <v>295</v>
-      </c>
-      <c r="H93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2">
-        <v>416</v>
-      </c>
-      <c r="C94" s="8">
-        <v>44694.520833333336</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G94" t="s">
-        <v>298</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -3897,185 +3963,224 @@
       <c r="B95" s="2">
         <v>417</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="6">
         <v>44677.479166666664</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G95" t="s">
         <v>49</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="9">
         <v>418</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="6">
         <v>44686.416666666664</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>4</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>328</v>
+      <c r="B97" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G97" t="s">
         <v>49</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1</v>
       </c>
       <c r="B98" s="2">
         <v>423</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>328</v>
+      <c r="C98" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
         <v>1</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="9">
         <v>424</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>328</v>
+      <c r="C99" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="6">
+        <v>44676.447916666664</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="8">
-        <v>44676.447916666664</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1</v>
       </c>
       <c r="B101" s="2">
         <v>434</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>328</v>
+      <c r="C101" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G101" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{DABE430D-82B4-46B7-B4F6-75BA9CB87654}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE91AED2-A67F-443C-81DD-FCDC76BB9193}">
+          <x14:formula1>
+            <xm:f>Datos!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D200</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39149E3A-D119-4105-9EC7-AE8191806D2E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>315</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G101" t="s">
-        <v>244</v>
-      </c>
-      <c r="H101" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>316</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{DABE430D-82B4-46B7-B4F6-75BA9CB87654}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{DE91AED2-A67F-443C-81DD-FCDC76BB9193}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>